--- a/lab/lab6/lab06_Section1.xlsx
+++ b/lab/lab6/lab06_Section1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liumanni/Documents/CSE 220/cse220_2020fall/lab/lab6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E5BC42-D8B2-664B-B459-230B5FC99EF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E11A889-6B0D-2843-B1FE-1753A983D3F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{1C3543F5-1004-B644-A376-BBD6DC1ED258}"/>
   </bookViews>
@@ -509,8 +509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E6C37B7-F0BE-684B-BEEA-5AEE1918F2D1}">
   <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="106" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="106" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -570,6 +570,9 @@
       <c r="A7" t="s">
         <v>6</v>
       </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
